--- a/Results/done_coding/general_comments.xlsx
+++ b/Results/done_coding/general_comments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emiel/Tilburg/Projects/Error_survey/ErrorAnalysisSurvey/Results/done_coding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{94F58668-9530-A94A-82CF-ED3A84D0D9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F460FF20-9A8A-AB43-B701-6964B5317F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15920"/>
   </bookViews>
@@ -992,7 +992,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1013,12 +1013,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
         <v>37</v>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
         <v>37</v>
@@ -1048,21 +1048,21 @@
     </row>
     <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
         <v>37</v>
@@ -1114,10 +1114,10 @@
     </row>
     <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
         <v>33</v>
@@ -1125,32 +1125,32 @@
     </row>
     <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -1167,34 +1167,34 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -1202,21 +1202,21 @@
     </row>
     <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -1233,12 +1233,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -1246,21 +1246,21 @@
     </row>
     <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -1268,21 +1268,21 @@
     </row>
     <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -1321,23 +1321,23 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C30" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C31" t="s">
         <v>32</v>
